--- a/Project_Documents/Plan_condition/Plan living condition.xlsx
+++ b/Project_Documents/Plan_condition/Plan living condition.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="15600" windowHeight="7560" firstSheet="7" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="15600" windowHeight="7560"/>
   </bookViews>
   <sheets>
     <sheet name="Content" sheetId="8" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="333">
   <si>
     <t xml:space="preserve">air humidity </t>
   </si>
@@ -1230,50 +1230,58 @@
     <t>In Progress</t>
   </si>
   <si>
+    <t>Testing &amp; Monitoring</t>
+  </si>
+  <si>
+    <t>TO DO</t>
+  </si>
+  <si>
+    <t>Documentation</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>21-01-2014</t>
+  </si>
+  <si>
+    <t>30-01-2014</t>
+  </si>
+  <si>
+    <t>30-01-2014 to 11-02-2014
+Next meeting : 12-02-2014</t>
+  </si>
+  <si>
+    <t>TBD</t>
+  </si>
+  <si>
+    <t>sink</t>
+  </si>
+  <si>
+    <t>&gt; During Night = 45-65 °F (7.2 -  18.3)ºC
+&gt; During Day =  50-70 °F (10- 21)C
+&gt; Cool night temperatures prolong flower life
+Note : They prefer warmth. Do not let fall below 55ºF. (12.7778 ºC)</t>
+  </si>
+  <si>
     <t xml:space="preserve">In Progress
 Temperature sensor : Arjun
 Co2, sensor :Konstantin
 Light Sensor : Pratyush
 Soil mositure sensor 1: Refat
 Soil mositure sensor 2: Rick
+Done
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Coding </t>
-  </si>
-  <si>
-    <t>Testing &amp; Monitoring</t>
-  </si>
-  <si>
-    <t>TO DO</t>
-  </si>
-  <si>
-    <t>Documentation</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>21-01-2014</t>
-  </si>
-  <si>
-    <t>30-01-2014</t>
-  </si>
-  <si>
-    <t>30-01-2014 to 11-02-2014
-Next meeting : 12-02-2014</t>
-  </si>
-  <si>
-    <t>TBD</t>
-  </si>
-  <si>
-    <t>sink</t>
-  </si>
-  <si>
-    <t>&gt; During Night = 45-65 °F (7.2 -  18.3)ºC
-&gt; During Day =  50-70 °F (10- 21)C
-&gt; Cool night temperatures prolong flower life
-Note : They prefer warmth. Do not let fall below 55ºF. (12.7778 ºC)</t>
+    <t>12-02-2014 to 24-02-2014
+Next meeting : 2-02-2014</t>
+  </si>
+  <si>
+    <t>Code Mergin and Testing on Tudunet</t>
+  </si>
+  <si>
+    <t>Coding API and Accuators</t>
   </si>
 </sst>
 </file>
@@ -6667,9 +6675,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -6895,9 +6901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B4:C9"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -6959,7 +6963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -6988,7 +6992,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="15.75" thickBot="1">
@@ -7200,7 +7204,7 @@
     </row>
     <row r="9" spans="2:15">
       <c r="B9" s="96" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -7687,7 +7691,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="E2:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -7738,10 +7744,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7769,7 +7775,7 @@
         <v>311</v>
       </c>
       <c r="D5" s="90" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="30.75" customHeight="1" thickBot="1">
@@ -7780,7 +7786,7 @@
         <v>312</v>
       </c>
       <c r="D6" s="92" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="27.75" customHeight="1" thickBot="1">
@@ -7791,7 +7797,7 @@
         <v>312</v>
       </c>
       <c r="D7" s="93" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="31.5" customHeight="1" thickBot="1">
@@ -7802,7 +7808,7 @@
         <v>312</v>
       </c>
       <c r="D8" s="93" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="143.25" customHeight="1" thickBot="1">
@@ -7810,43 +7816,54 @@
         <v>316</v>
       </c>
       <c r="C9" s="93" t="s">
+        <v>329</v>
+      </c>
+      <c r="D9" s="93" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="143.25" customHeight="1" thickBot="1">
+      <c r="B10" s="95" t="s">
+        <v>331</v>
+      </c>
+      <c r="C10" s="93" t="s">
+        <v>318</v>
+      </c>
+      <c r="D10" s="93" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="30" customHeight="1" thickBot="1">
+      <c r="B11" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="C11" s="92" t="s">
+        <v>320</v>
+      </c>
+      <c r="D11" s="92" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="25.5" customHeight="1" thickBot="1">
+      <c r="B12" s="22" t="s">
         <v>319</v>
       </c>
-      <c r="D9" s="93" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="30" customHeight="1" thickBot="1">
-      <c r="B10" s="22" t="s">
+      <c r="C12" s="92" t="s">
         <v>320</v>
       </c>
-      <c r="C10" s="92" t="s">
-        <v>322</v>
-      </c>
-      <c r="D10" s="92" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="25.5" customHeight="1" thickBot="1">
-      <c r="B11" s="22" t="s">
+      <c r="D12" s="92" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="26.25" customHeight="1" thickBot="1">
+      <c r="B13" s="22" t="s">
         <v>321</v>
       </c>
-      <c r="C11" s="92" t="s">
-        <v>322</v>
-      </c>
-      <c r="D11" s="92" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="26.25" customHeight="1" thickBot="1">
-      <c r="B12" s="22" t="s">
-        <v>323</v>
-      </c>
-      <c r="C12" s="92" t="s">
+      <c r="C13" s="92" t="s">
         <v>318</v>
       </c>
-      <c r="D12" s="92" t="s">
-        <v>328</v>
+      <c r="D13" s="92" t="s">
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -7957,8 +7974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:K39"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Project_Documents/Plan_condition/Plan living condition.xlsx
+++ b/Project_Documents/Plan_condition/Plan living condition.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="334">
   <si>
     <t xml:space="preserve">air humidity </t>
   </si>
@@ -1274,14 +1274,17 @@
 </t>
   </si>
   <si>
+    <t>Code Mergin and Testing on Tudunet</t>
+  </si>
+  <si>
+    <t>Coding API and Accuators</t>
+  </si>
+  <si>
     <t>12-02-2014 to 24-02-2014
-Next meeting : 2-02-2014</t>
-  </si>
-  <si>
-    <t>Code Mergin and Testing on Tudunet</t>
-  </si>
-  <si>
-    <t>Coding API and Accuators</t>
+Next meeting : 26-02-2014</t>
+  </si>
+  <si>
+    <t>28-02-2014</t>
   </si>
 </sst>
 </file>
@@ -7747,7 +7750,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7824,24 +7827,24 @@
     </row>
     <row r="10" spans="1:13" ht="143.25" customHeight="1" thickBot="1">
       <c r="B10" s="95" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C10" s="93" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="D10" s="93" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="30" customHeight="1" thickBot="1">
       <c r="B11" s="22" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C11" s="92" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D11" s="92" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="25.5" customHeight="1" thickBot="1">
